--- a/data/georgia_census/adjara/xelvachauri/age_dependency.xlsx
+++ b/data/georgia_census/adjara/xelvachauri/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{926098BA-7E21-464F-AF45-8834103AB1CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78DBBEE5-90C3-4044-BE3A-1FA7F8086456}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D84BC-C6D4-411F-87E3-B3D21817CABD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7EA7381-6209-46B8-925E-D366ABC64F07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{479CFA64-E0B4-4AD3-93E4-C2D5BBFDB71D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E18623D-69C5-4693-9497-F076922C942A}"/>
 </file>